--- a/Level-II/mini project/data/table_metadata.xlsx
+++ b/Level-II/mini project/data/table_metadata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1896216\Desktop\repos\jac_bigdata\Level-II\Lecture3\mini project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1896216\Desktop\repos\jac_bigdata\Level-II\mini project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="236">
   <si>
     <t>Promo_code_id</t>
   </si>
@@ -750,6 +750,9 @@
   <si>
     <t>Loyalty_Member_Num</t>
   </si>
+  <si>
+    <t>Target_Table</t>
+  </si>
 </sst>
 </file>
 
@@ -759,7 +762,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -789,8 +792,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +822,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -872,6 +894,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,7 +1681,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1799,7 +1824,7 @@
   </sheetPr>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -2998,7 +3023,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3628,276 +3653,277 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L5" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21">
+    <row r="6" spans="1:12" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F6" s="21">
         <v>12</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G6" s="21">
         <v>2</v>
       </c>
-      <c r="H3" s="21">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J6" s="21">
         <v>23</v>
       </c>
-      <c r="K3" s="21">
-        <v>1</v>
-      </c>
-      <c r="L3" s="21">
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
         <v>43101.847916666666</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="D9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23">
+    <row r="10" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23">
         <v>2</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F10" s="23">
         <v>23</v>
       </c>
-      <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23">
+      <c r="G10" s="23">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
         <v>43101.852083333331</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
+    <row r="14" spans="1:12" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22">
         <v>2</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F14" s="22">
         <v>23</v>
       </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="22">
+      <c r="G14" s="22">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22">
         <v>43101.851388888892</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>112</v>
       </c>
@@ -3905,27 +3931,33 @@
         <v>102</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>112</v>
       </c>
@@ -3948,59 +3980,88 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B29" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B30" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B31" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B32" s="3">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4009,7 +4070,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
